--- a/xlsx/中華臺北_intext.xlsx
+++ b/xlsx/中華臺北_intext.xlsx
@@ -29,7 +29,7 @@
     <t>台湾</t>
   </si>
   <si>
-    <t>政策_政策_美國_中華臺北</t>
+    <t>体育运动_体育运动_体育_中華臺北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD</t>
